--- a/ΥΠΟΛ. ΧΡΕΩΠΙΣΤ. UNPROTECTED.xlsx
+++ b/ΥΠΟΛ. ΧΡΕΩΠΙΣΤ. UNPROTECTED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\Programming Stuff\myProjects\PaymentsCalculator\PaymentCalculator\PaymentCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AAAB7F-951A-42D0-B497-1123B9A5FADB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAEAAB5-B0FB-4AEA-A874-0E9107A9B52C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geneva Corporate &amp; 1-5 WOMS " sheetId="1" r:id="rId1"/>
@@ -19,13 +19,13 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Zografos Aris_michalis - Personal View" guid="{AD13B554-DEA4-4723-B852-B98C2E96FE29}" mergeInterval="0" personalView="1" maximized="1" xWindow="3512" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="Sideridou Maria - Προσωπική προβολή" guid="{B9F412AE-1708-4B8D-B1AF-0593B549CE88}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="835" activeSheetId="1"/>
+    <customWorkbookView name="Zografos Aris michalis - Personal View" guid="{1ADDD905-FE1F-404A-A976-94CF46B34A2E}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="834" activeSheetId="2"/>
+    <customWorkbookView name="Fragkopoylos Alexandros - Προσωπική προβολή" guid="{337AFAD1-8B65-4ABE-BB91-50361441DCE2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1600" windowHeight="654" activeSheetId="1"/>
+    <customWorkbookView name="Vlachogianni Marina - Προσωπική προβολή" guid="{AAB36794-6373-439A-AFE9-AAC9C9EBC0EC}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="Masika Evanthia - Προσωπική προβολή" guid="{C5A527C4-DFA2-4D11-8C35-48CB4DDDD68D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="795" activeSheetId="1"/>
     <customWorkbookView name="arzografos - Personal View" guid="{919354F1-64D2-4C80-87A2-5814BCF7D8CD}" mergeInterval="0" personalView="1" maximized="1" xWindow="3512" yWindow="-86" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="Masika Evanthia - Προσωπική προβολή" guid="{C5A527C4-DFA2-4D11-8C35-48CB4DDDD68D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="795" activeSheetId="1"/>
-    <customWorkbookView name="Vlachogianni Marina - Προσωπική προβολή" guid="{AAB36794-6373-439A-AFE9-AAC9C9EBC0EC}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Fragkopoylos Alexandros - Προσωπική προβολή" guid="{337AFAD1-8B65-4ABE-BB91-50361441DCE2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1600" windowHeight="654" activeSheetId="1"/>
-    <customWorkbookView name="Zografos Aris michalis - Personal View" guid="{1ADDD905-FE1F-404A-A976-94CF46B34A2E}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="834" activeSheetId="2"/>
-    <customWorkbookView name="Sideridou Maria - Προσωπική προβολή" guid="{B9F412AE-1708-4B8D-B1AF-0593B549CE88}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="835" activeSheetId="1"/>
-    <customWorkbookView name="Zografos Aris_michalis - Personal View" guid="{AD13B554-DEA4-4723-B852-B98C2E96FE29}" mergeInterval="0" personalView="1" maximized="1" xWindow="3512" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
   <si>
     <t>START DATE</t>
   </si>
@@ -117,6 +117,75 @@
   </si>
   <si>
     <t>ΣΥΜΠΛΗΡΩΝΟΥΜΕ ΜΌΝΟ ΤΑ ΠΡΑΣΙΝΑ ΚΑΙ ΤΑ ΜΠΛΕ ΚΕΛΙΑ</t>
+  </si>
+  <si>
+    <t>bCycleStart</t>
+  </si>
+  <si>
+    <t>bCycleEnd</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>rDate1</t>
+  </si>
+  <si>
+    <t>rDate2</t>
+  </si>
+  <si>
+    <t>bDate1</t>
+  </si>
+  <si>
+    <t>bDate2</t>
+  </si>
+  <si>
+    <t>bDate4</t>
+  </si>
+  <si>
+    <t>bDate3</t>
+  </si>
+  <si>
+    <t>fDate1</t>
+  </si>
+  <si>
+    <t>fDate2</t>
+  </si>
+  <si>
+    <t>Start Date κύκλος τιμολόγησης</t>
+  </si>
+  <si>
+    <t>End Date κύκλος τιμολόγησης</t>
+  </si>
+  <si>
+    <t>Start Date / ΠΡΩΤΗ ΠΕΡΙΟΔΟΣ ΕΠΙΣΤΡ1 a</t>
+  </si>
+  <si>
+    <t>End Date / ΤΕΛΕΥΤΑΙΑ ΠΕΡΙΟΔΟΣ ΕΠΙΣΤΡ2 b</t>
+  </si>
+  <si>
+    <t>ΠΡΩΤΗ ΠΕΡΙΟΔΟΣ ΕΠΙΣΤΡ1 b</t>
+  </si>
+  <si>
+    <t>ΤΕΛΕΥΤΑΙΑ ΠΕΡΙΟΔΟΣ ΕΠΙΣΤΡ2 a</t>
+  </si>
+  <si>
+    <t>ΠΡΩΤΗ ΠΕΡΙΟΔΟΣ ΤΙΜΟΛ1 a</t>
+  </si>
+  <si>
+    <t>ΠΡΩΤΗ ΠΕΡΙΟΔΟΣ ΤΙΜΟΛ1 b</t>
+  </si>
+  <si>
+    <t>ΤΕΛΕΥΤΑΙΑ ΠΕΡΙΟΔΟΣ ΤΙΜΟΛ2 a</t>
+  </si>
+  <si>
+    <t>ΤΕΛΕΥΤΑΙΑ ΠΕΡΙΟΔΟΣ ΤΙΜΟΛ2 b</t>
+  </si>
+  <si>
+    <t>ΑΚΕΡΑΙΟΙ ΜΗΝΕΣ 1 a</t>
   </si>
 </sst>
 </file>
@@ -129,7 +198,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +287,37 @@
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -511,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -659,6 +759,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1060,7 +1166,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1221,17 +1327,17 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <customSheetViews>
-    <customSheetView guid="{919354F1-64D2-4C80-87A2-5814BCF7D8CD}">
+    <customSheetView guid="{AD13B554-DEA4-4723-B852-B98C2E96FE29}">
       <selection activeCell="F3" sqref="F3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C5A527C4-DFA2-4D11-8C35-48CB4DDDD68D}">
+    <customSheetView guid="{B9F412AE-1708-4B8D-B1AF-0593B549CE88}">
       <selection activeCell="F3" sqref="F3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{AAB36794-6373-439A-AFE9-AAC9C9EBC0EC}">
+    <customSheetView guid="{1ADDD905-FE1F-404A-A976-94CF46B34A2E}">
       <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId3"/>
@@ -1241,17 +1347,17 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{1ADDD905-FE1F-404A-A976-94CF46B34A2E}">
+    <customSheetView guid="{AAB36794-6373-439A-AFE9-AAC9C9EBC0EC}">
       <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{B9F412AE-1708-4B8D-B1AF-0593B549CE88}">
+    <customSheetView guid="{C5A527C4-DFA2-4D11-8C35-48CB4DDDD68D}">
       <selection activeCell="F3" sqref="F3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId6"/>
     </customSheetView>
-    <customSheetView guid="{AD13B554-DEA4-4723-B852-B98C2E96FE29}">
+    <customSheetView guid="{919354F1-64D2-4C80-87A2-5814BCF7D8CD}">
       <selection activeCell="F3" sqref="F3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId7"/>
@@ -1267,15 +1373,15 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="51" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
@@ -1644,7 +1750,8 @@
       <c r="X16" s="71"/>
       <c r="Y16" s="71"/>
     </row>
-    <row r="17" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="72"/>
       <c r="K17" s="11" t="s">
         <v>11</v>
       </c>
@@ -1688,7 +1795,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="72"/>
       <c r="H18" s="17" t="s">
         <v>15</v>
       </c>
@@ -1747,7 +1855,13 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="19" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>37</v>
+      </c>
       <c r="H19" s="17" t="s">
         <v>15</v>
       </c>
@@ -1756,7 +1870,21 @@
         <v>41235</v>
       </c>
     </row>
-    <row r="21" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>39</v>
+      </c>
       <c r="H21" s="18" t="s">
         <v>16</v>
       </c>
@@ -1781,7 +1909,13 @@
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
     </row>
-    <row r="22" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>40</v>
+      </c>
       <c r="H22" s="18" t="s">
         <v>16</v>
       </c>
@@ -1818,7 +1952,13 @@
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
     </row>
-    <row r="23" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>41</v>
+      </c>
       <c r="K23" s="13">
         <f>DAY(B4)</f>
         <v>23</v>
@@ -1852,7 +1992,13 @@
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
     </row>
-    <row r="24" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>42</v>
+      </c>
       <c r="H24" s="20" t="s">
         <v>17</v>
       </c>
@@ -1861,7 +2007,13 @@
         <v>41236</v>
       </c>
     </row>
-    <row r="25" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>43</v>
+      </c>
       <c r="H25" s="20" t="s">
         <v>17</v>
       </c>
@@ -1870,7 +2022,21 @@
         <v>42026</v>
       </c>
     </row>
-    <row r="27" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="76" t="s">
+        <v>45</v>
+      </c>
       <c r="H27" s="8" t="s">
         <v>18</v>
       </c>
@@ -1879,7 +2045,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>46</v>
+      </c>
       <c r="H28" s="15" t="s">
         <v>19</v>
       </c>
@@ -1888,7 +2060,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>47</v>
+      </c>
       <c r="H29" s="20" t="s">
         <v>17</v>
       </c>
@@ -1898,7 +2076,13 @@
       </c>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>47</v>
+      </c>
       <c r="H30" s="17" t="s">
         <v>20</v>
       </c>
@@ -1907,7 +2091,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B31" s="72"/>
       <c r="H31" s="18" t="s">
         <v>21</v>
       </c>
@@ -1919,17 +2104,17 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <customSheetViews>
-    <customSheetView guid="{919354F1-64D2-4C80-87A2-5814BCF7D8CD}">
-      <selection activeCell="F3" sqref="F3"/>
+    <customSheetView guid="{AD13B554-DEA4-4723-B852-B98C2E96FE29}">
+      <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C5A527C4-DFA2-4D11-8C35-48CB4DDDD68D}">
+    <customSheetView guid="{B9F412AE-1708-4B8D-B1AF-0593B549CE88}">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{AAB36794-6373-439A-AFE9-AAC9C9EBC0EC}">
+    <customSheetView guid="{1ADDD905-FE1F-404A-A976-94CF46B34A2E}">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId3"/>
@@ -1939,18 +2124,18 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{1ADDD905-FE1F-404A-A976-94CF46B34A2E}">
+    <customSheetView guid="{AAB36794-6373-439A-AFE9-AAC9C9EBC0EC}">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{B9F412AE-1708-4B8D-B1AF-0593B549CE88}">
+    <customSheetView guid="{C5A527C4-DFA2-4D11-8C35-48CB4DDDD68D}">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId6"/>
     </customSheetView>
-    <customSheetView guid="{AD13B554-DEA4-4723-B852-B98C2E96FE29}">
-      <selection activeCell="C4" sqref="C4"/>
+    <customSheetView guid="{919354F1-64D2-4C80-87A2-5814BCF7D8CD}">
+      <selection activeCell="F3" sqref="F3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId7"/>
     </customSheetView>
@@ -2012,25 +2197,25 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{919354F1-64D2-4C80-87A2-5814BCF7D8CD}">
+    <customSheetView guid="{AD13B554-DEA4-4723-B852-B98C2E96FE29}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9F412AE-1708-4B8D-B1AF-0593B549CE88}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{1ADDD905-FE1F-404A-A976-94CF46B34A2E}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{337AFAD1-8B65-4ABE-BB91-50361441DCE2}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{AAB36794-6373-439A-AFE9-AAC9C9EBC0EC}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{C5A527C4-DFA2-4D11-8C35-48CB4DDDD68D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AAB36794-6373-439A-AFE9-AAC9C9EBC0EC}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{337AFAD1-8B65-4ABE-BB91-50361441DCE2}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{1ADDD905-FE1F-404A-A976-94CF46B34A2E}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{B9F412AE-1708-4B8D-B1AF-0593B549CE88}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AD13B554-DEA4-4723-B852-B98C2E96FE29}">
+    <customSheetView guid="{919354F1-64D2-4C80-87A2-5814BCF7D8CD}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -2039,29 +2224,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="940cbaec-014b-4836-b3eb-3eb0858b1a39" origin="userSelected"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <WrappedLabelHistory xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory">
   <Value>PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXMtYXNjaWkiPz48bGFiZWxIaXN0b3J5IHhtbG5zOnhzaT0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEtaW5zdGFuY2UiIHhtbG5zOnhzZD0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDE2LzAyL0NsYXNzaWZpZXIvaW50ZXJuYWwvbGFiZWxIaXN0b3J5Ij48aXRlbT48c2lzbCBzaXNsVmVyc2lvbj0iMCIgcG9saWN5PSI5NDBjYmFlYy0wMTRiLTQ4MzYtYjNlYi0zZWIwODU4YjFhMzkiIG9yaWdpbj0idXNlclNlbGVjdGVkIiAvPjxVc2VyTmFtZT5DRU5UUkFMLURPTUFJTlxhcnpvZ3JhZm9zPC9Vc2VyTmFtZT48RGF0ZVRpbWU+MS8xMi8yMDIwIDA3OjEwOjMxPC9EYXRlVGltZT48TGFiZWxTdHJpbmc+VGhpcyBpdGVtIGhhcyBubyBjbGFzc2lmaWNhdGlvbjwvTGFiZWxTdHJpbmc+PC9pdGVtPjwvbGFiZWxIaXN0b3J5Pg==</Value>
 </WrappedLabelHistory>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="940cbaec-014b-4836-b3eb-3eb0858b1a39" origin="userSelected"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F40AA99-4E72-4CB2-AEAA-8FE7011F1DA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AC5C61-D6B9-4BF0-93B8-D5DC3422DCCA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F40AA99-4E72-4CB2-AEAA-8FE7011F1DA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>